--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhu\Desktop\a_big_survey_updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF01A5-D9C7-4244-B847-9E6506DD91E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510C3CD-F87E-44CB-8510-57E97792F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-60" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NLP" sheetId="1" r:id="rId1"/>
@@ -11988,9 +11988,6 @@
     <t>A Survey on Machine Reading Comprehension: Tasks, Evaluation Metrics, and Benchmark Datasets</t>
   </si>
   <si>
-    <t>William Fedus, Jeff Dean, Barret Zoph</t>
-  </si>
-  <si>
     <t>Yang Liu, Yao Zhang, Yixin Wang, Feng Hou, Jin Yuan, Jiang Tian, Yang Zhang, Zhongchao Shi, Jianping Fan, Zhiqiang He</t>
   </si>
   <si>
@@ -15387,6 +15384,10 @@
   </si>
   <si>
     <t>Shiwen Wu, Fei Sun, Wentao Zhang, Xu Xie, Bin Cui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>William Fedus, Jeff Dean, Barret Zoph</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -15821,226 +15822,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="76200" cy="76200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F69C851-271B-4A28-A0FA-650094C5F8A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="393700"/>
-          <a:ext cx="76200" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>433</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="76200" cy="76200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013C1280-5C8A-4FAD-B02E-2DBE3265ADFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="23031450"/>
-          <a:ext cx="76200" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>428</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="76200" cy="76200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF099185-E790-41EF-BBFD-C42CC672B612}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="22834600"/>
-          <a:ext cx="76200" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="76200" cy="76200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1F1CB9-4541-4D68-A3BE-2CA7272F0F17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="11309350"/>
-          <a:ext cx="76200" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="76200" cy="76200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9830CB97-913A-48D5-A12A-4508ED67F98B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="24828500"/>
-          <a:ext cx="76200" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16306,8 +16087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16347,13 +16128,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2730</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
@@ -16365,18 +16146,18 @@
         <v>2233</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2730</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2268</v>
@@ -16393,13 +16174,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2730</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>1603</v>
@@ -16411,7 +16192,7 @@
         <v>1150</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16422,7 +16203,7 @@
         <v>2730</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2141</v>
@@ -16457,12 +16238,12 @@
         <v>2731</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2730</v>
@@ -16480,12 +16261,12 @@
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2730</v>
@@ -16503,18 +16284,18 @@
         <v>225</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2730</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>2241</v>
@@ -16526,12 +16307,12 @@
         <v>2002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2730</v>
@@ -16549,12 +16330,12 @@
         <v>2003</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>2730</v>
@@ -16572,7 +16353,7 @@
         <v>1693</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16600,7 +16381,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2730</v>
@@ -16618,18 +16399,18 @@
         <v>2001</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>32</v>
@@ -16646,7 +16427,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -16655,7 +16436,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="E15" s="9">
         <v>2018</v>
@@ -16664,12 +16445,12 @@
         <v>1680</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>8</v>
@@ -16698,7 +16479,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>32</v>
@@ -16710,12 +16491,12 @@
         <v>2733</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>8</v>
@@ -16738,13 +16519,13 @@
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>32</v>
@@ -16756,12 +16537,12 @@
         <v>2734</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
@@ -16784,7 +16565,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>8</v>
@@ -16807,7 +16588,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>8</v>
@@ -16830,7 +16611,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>8</v>
@@ -16839,7 +16620,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="E23" s="9">
         <v>2020</v>
@@ -16859,7 +16640,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>32</v>
@@ -16871,12 +16652,12 @@
         <v>2736</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
@@ -16894,18 +16675,18 @@
         <v>28</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1603</v>
@@ -16922,16 +16703,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="E27" s="9">
         <v>2019</v>
@@ -16940,12 +16721,12 @@
         <v>2279</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>8</v>
@@ -16968,7 +16749,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -16991,7 +16772,7 @@
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>8</v>
@@ -17017,10 +16798,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>1275</v>
@@ -17035,18 +16816,18 @@
         <v>1276</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>3529</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>4326</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>3530</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>32</v>
@@ -17063,7 +16844,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>1696</v>
@@ -17081,7 +16862,7 @@
         <v>2737</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -17089,7 +16870,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>37</v>
@@ -17107,18 +16888,18 @@
         <v>34</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>1696</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>32</v>
@@ -17130,7 +16911,7 @@
         <v>2738</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -17153,12 +16934,12 @@
         <v>2740</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>37</v>
@@ -17176,7 +16957,7 @@
         <v>222</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -17204,7 +16985,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>37</v>
@@ -17233,7 +17014,7 @@
         <v>1696</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>32</v>
@@ -17245,12 +17026,12 @@
         <v>2742</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>37</v>
@@ -17268,18 +17049,18 @@
         <v>71</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>2239</v>
@@ -17291,18 +17072,18 @@
         <v>1655</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>2239</v>
@@ -17322,7 +17103,7 @@
     </row>
     <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>37</v>
@@ -17340,7 +17121,7 @@
         <v>41</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
@@ -17348,7 +17129,7 @@
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>1696</v>
@@ -17374,7 +17155,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>37</v>
@@ -17400,7 +17181,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>37</v>
@@ -17426,7 +17207,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>37</v>
@@ -17452,7 +17233,7 @@
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>37</v>
@@ -17478,7 +17259,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>37</v>
@@ -17501,7 +17282,7 @@
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>37</v>
@@ -17533,7 +17314,7 @@
         <v>37</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>32</v>
@@ -17545,7 +17326,7 @@
         <v>2744</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -17553,7 +17334,7 @@
     </row>
     <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>37</v>
@@ -17579,13 +17360,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>2268</v>
@@ -17597,7 +17378,7 @@
         <v>2017</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -17605,7 +17386,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>52</v>
@@ -17631,7 +17412,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>52</v>
@@ -17654,7 +17435,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>52</v>
@@ -17677,7 +17458,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>52</v>
@@ -17695,12 +17476,12 @@
         <v>218</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>52</v>
@@ -17744,12 +17525,12 @@
         <v>2746</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>52</v>
@@ -17772,7 +17553,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>52</v>
@@ -17790,7 +17571,7 @@
         <v>66</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -17798,7 +17579,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>52</v>
@@ -17821,7 +17602,7 @@
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>52</v>
@@ -17839,7 +17620,7 @@
         <v>68</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
@@ -17847,13 +17628,13 @@
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>14</v>
@@ -17873,7 +17654,7 @@
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>52</v>
@@ -17899,13 +17680,13 @@
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>32</v>
@@ -17917,18 +17698,18 @@
         <v>2747</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>2258</v>
@@ -17948,13 +17729,13 @@
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
@@ -17974,13 +17755,13 @@
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>32</v>
@@ -17992,7 +17773,7 @@
         <v>2748</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -18000,13 +17781,13 @@
     </row>
     <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>1437</v>
@@ -18018,7 +17799,7 @@
         <v>920</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -18026,7 +17807,7 @@
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>52</v>
@@ -18052,7 +17833,7 @@
     </row>
     <row r="73" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>52</v>
@@ -18078,10 +17859,10 @@
     </row>
     <row r="74" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>2259</v>
@@ -18101,7 +17882,7 @@
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>84</v>
@@ -18145,7 +17926,7 @@
         <v>2740</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -18153,7 +17934,7 @@
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>84</v>
@@ -18168,10 +17949,10 @@
         <v>2019</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -18179,13 +17960,13 @@
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>32</v>
@@ -18197,7 +17978,7 @@
         <v>2749</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -18205,7 +17986,7 @@
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>84</v>
@@ -18223,12 +18004,12 @@
         <v>212</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>84</v>
@@ -18251,7 +18032,7 @@
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>84</v>
@@ -18274,13 +18055,13 @@
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>2285</v>
@@ -18292,12 +18073,12 @@
         <v>2750</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>84</v>
@@ -18315,12 +18096,12 @@
         <v>1135</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>84</v>
@@ -18338,7 +18119,7 @@
         <v>2019</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -18361,7 +18142,7 @@
         <v>2752</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -18369,7 +18150,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>84</v>
@@ -18387,7 +18168,7 @@
         <v>899</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -18395,13 +18176,13 @@
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>3618</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>4328</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>3619</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>2266</v>
@@ -18413,7 +18194,7 @@
         <v>2265</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
@@ -18421,7 +18202,7 @@
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>91</v>
@@ -18439,12 +18220,12 @@
         <v>2018</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>91</v>
@@ -18467,7 +18248,7 @@
     </row>
     <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>91</v>
@@ -18493,7 +18274,7 @@
     </row>
     <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>91</v>
@@ -18511,7 +18292,7 @@
         <v>93</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
@@ -18519,7 +18300,7 @@
     </row>
     <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>91</v>
@@ -18563,18 +18344,18 @@
         <v>2755</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>2268</v>
@@ -18591,7 +18372,7 @@
     </row>
     <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>91</v>
@@ -18614,7 +18395,7 @@
     </row>
     <row r="96" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>91</v>
@@ -18637,7 +18418,7 @@
     </row>
     <row r="97" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>106</v>
@@ -18655,18 +18436,18 @@
         <v>1131</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>14</v>
@@ -18706,13 +18487,13 @@
     </row>
     <row r="100" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>2282</v>
@@ -18729,7 +18510,7 @@
     </row>
     <row r="101" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>106</v>
@@ -18747,12 +18528,12 @@
         <v>110</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>106</v>
@@ -18798,13 +18579,13 @@
     </row>
     <row r="104" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>2280</v>
@@ -18816,7 +18597,7 @@
         <v>114</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -18824,13 +18605,13 @@
     </row>
     <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>32</v>
@@ -18842,18 +18623,18 @@
         <v>2756</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>2281</v>
@@ -18870,7 +18651,7 @@
     </row>
     <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>106</v>
@@ -18896,13 +18677,13 @@
     </row>
     <row r="108" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D108" t="s">
         <v>2268</v>
@@ -18914,18 +18695,18 @@
         <v>1653</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>2285</v>
@@ -18960,18 +18741,18 @@
         <v>2758</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>1089</v>
@@ -18988,13 +18769,13 @@
     </row>
     <row r="112" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>14</v>
@@ -19043,7 +18824,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>2760</v>
@@ -19055,7 +18836,7 @@
         <v>2761</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -19066,10 +18847,10 @@
         <v>2288</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="D115" t="s">
         <v>2287</v>
@@ -19078,7 +18859,7 @@
         <v>2016</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>1301</v>
@@ -19089,16 +18870,16 @@
     </row>
     <row r="116" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>2286</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E116" s="9">
         <v>2017</v>
@@ -19107,7 +18888,7 @@
         <v>1620</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -19115,13 +18896,13 @@
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>3668</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>3665</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>3669</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>14</v>
@@ -19133,7 +18914,7 @@
         <v>121</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -19141,13 +18922,13 @@
     </row>
     <row r="118" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>3671</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>3665</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>3672</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>2381</v>
@@ -19159,15 +18940,15 @@
         <v>1699</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>122</v>
@@ -19182,7 +18963,7 @@
         <v>123</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -19190,10 +18971,10 @@
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>3676</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>3677</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>2290</v>
@@ -19208,7 +18989,7 @@
         <v>1700</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -19216,10 +18997,10 @@
     </row>
     <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>124</v>
@@ -19242,13 +19023,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>3680</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>3677</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>3681</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>27</v>
@@ -19260,7 +19041,7 @@
         <v>127</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -19268,7 +19049,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>128</v>
@@ -19277,7 +19058,7 @@
         <v>2230</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="E123" s="9">
         <v>2021</v>
@@ -19294,7 +19075,7 @@
     </row>
     <row r="124" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>128</v>
@@ -19320,7 +19101,7 @@
     </row>
     <row r="125" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>128</v>
@@ -19343,7 +19124,7 @@
     </row>
     <row r="126" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>128</v>
@@ -19361,7 +19142,7 @@
         <v>60</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
@@ -19369,7 +19150,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>128</v>
@@ -19395,7 +19176,7 @@
     </row>
     <row r="128" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>128</v>
@@ -19418,7 +19199,7 @@
     </row>
     <row r="129" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>128</v>
@@ -19444,7 +19225,7 @@
     </row>
     <row r="130" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>128</v>
@@ -19470,7 +19251,7 @@
     </row>
     <row r="131" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>128</v>
@@ -19496,7 +19277,7 @@
     </row>
     <row r="132" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>128</v>
@@ -19514,18 +19295,18 @@
         <v>1151</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>2294</v>
@@ -19537,7 +19318,7 @@
         <v>355</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -19545,13 +19326,13 @@
     </row>
     <row r="134" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>368</v>
@@ -19563,7 +19344,7 @@
         <v>1152</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
@@ -19571,7 +19352,7 @@
     </row>
     <row r="135" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>128</v>
@@ -19597,7 +19378,7 @@
     </row>
     <row r="136" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>128</v>
@@ -19623,7 +19404,7 @@
     </row>
     <row r="137" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>128</v>
@@ -19641,7 +19422,7 @@
         <v>148</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -19649,7 +19430,7 @@
     </row>
     <row r="138" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>128</v>
@@ -19693,7 +19474,7 @@
         <v>1638</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -19701,7 +19482,7 @@
     </row>
     <row r="140" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>128</v>
@@ -19710,7 +19491,7 @@
         <v>654</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="E140" s="9">
         <v>2015</v>
@@ -19724,13 +19505,13 @@
     </row>
     <row r="141" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>14</v>
@@ -19747,13 +19528,13 @@
     </row>
     <row r="142" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>2300</v>
@@ -19773,7 +19554,7 @@
     </row>
     <row r="143" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>128</v>
@@ -19782,21 +19563,21 @@
         <v>154</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="E143" s="9">
         <v>2019</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>128</v>
@@ -19819,13 +19600,13 @@
     </row>
     <row r="145" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>14</v>
@@ -19837,7 +19618,7 @@
         <v>1616</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -19845,7 +19626,7 @@
     </row>
     <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>128</v>
@@ -19889,7 +19670,7 @@
         <v>1373</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -19897,7 +19678,7 @@
     </row>
     <row r="148" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>157</v>
@@ -19915,12 +19696,12 @@
         <v>159</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>157</v>
@@ -19946,7 +19727,7 @@
     </row>
     <row r="150" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>157</v>
@@ -19972,7 +19753,7 @@
     </row>
     <row r="151" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>157</v>
@@ -19998,7 +19779,7 @@
     </row>
     <row r="152" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>157</v>
@@ -20007,7 +19788,7 @@
         <v>168</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="E152" s="9">
         <v>2021</v>
@@ -20016,7 +19797,7 @@
         <v>169</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -20024,7 +19805,7 @@
     </row>
     <row r="153" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>157</v>
@@ -20050,7 +19831,7 @@
     </row>
     <row r="154" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>157</v>
@@ -20068,12 +19849,12 @@
         <v>174</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>157</v>
@@ -20096,13 +19877,13 @@
     </row>
     <row r="156" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>32</v>
@@ -20114,12 +19895,12 @@
         <v>2762</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>157</v>
@@ -20142,7 +19923,7 @@
     </row>
     <row r="158" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>157</v>
@@ -20165,7 +19946,7 @@
     </row>
     <row r="159" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>157</v>
@@ -20188,7 +19969,7 @@
     </row>
     <row r="160" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>157</v>
@@ -20197,7 +19978,7 @@
         <v>175</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="E160" s="9">
         <v>2018</v>
@@ -20206,7 +19987,7 @@
         <v>1615</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -20214,7 +19995,7 @@
     </row>
     <row r="161" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>157</v>
@@ -20237,13 +20018,13 @@
     </row>
     <row r="162" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>14</v>
@@ -20255,12 +20036,12 @@
         <v>178</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>157</v>
@@ -20278,12 +20059,12 @@
         <v>1268</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>157</v>
@@ -20306,13 +20087,13 @@
     </row>
     <row r="165" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>14</v>
@@ -20332,7 +20113,7 @@
     </row>
     <row r="166" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>157</v>
@@ -20350,12 +20131,12 @@
         <v>183</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>157</v>
@@ -20378,13 +20159,13 @@
     </row>
     <row r="168" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>14</v>
@@ -20401,7 +20182,7 @@
     </row>
     <row r="169" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>157</v>
@@ -20424,7 +20205,7 @@
     </row>
     <row r="170" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>157</v>
@@ -20442,7 +20223,7 @@
         <v>186</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -20453,7 +20234,7 @@
         <v>157</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>2315</v>
@@ -20470,10 +20251,10 @@
     </row>
     <row r="172" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>3756</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>3757</v>
       </c>
       <c r="C172" s="31" t="s">
         <v>2318</v>
@@ -20493,16 +20274,16 @@
     </row>
     <row r="173" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C173" s="8" t="s">
         <v>3758</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>3757</v>
-      </c>
-      <c r="C173" s="8" t="s">
+      <c r="D173" s="6" t="s">
         <v>3759</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>3760</v>
       </c>
       <c r="E173" s="9">
         <v>2007</v>
@@ -20511,15 +20292,15 @@
         <v>1608</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="174" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>204</v>
@@ -20534,15 +20315,15 @@
         <v>205</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>206</v>
@@ -20557,7 +20338,7 @@
         <v>207</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -20565,10 +20346,10 @@
     </row>
     <row r="176" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>208</v>
@@ -20583,7 +20364,7 @@
         <v>209</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -20591,10 +20372,10 @@
     </row>
     <row r="177" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>210</v>
@@ -20609,7 +20390,7 @@
         <v>211</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -20617,7 +20398,7 @@
     </row>
     <row r="178" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>1147</v>
@@ -20635,7 +20416,7 @@
         <v>1321</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -20643,7 +20424,7 @@
     </row>
     <row r="179" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>1147</v>
@@ -20661,7 +20442,7 @@
         <v>99</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -20669,7 +20450,7 @@
     </row>
     <row r="180" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>1147</v>
@@ -20695,7 +20476,7 @@
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>188</v>
@@ -20713,7 +20494,7 @@
         <v>2049</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -20721,7 +20502,7 @@
     </row>
     <row r="182" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>188</v>
@@ -20739,7 +20520,7 @@
         <v>2021</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -20747,7 +20528,7 @@
     </row>
     <row r="183" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>188</v>
@@ -20765,7 +20546,7 @@
         <v>215</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -20773,7 +20554,7 @@
     </row>
     <row r="184" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>188</v>
@@ -20782,7 +20563,7 @@
         <v>2322</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="E184" s="9">
         <v>2021</v>
@@ -20791,7 +20572,7 @@
         <v>410</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="H184"/>
       <c r="I184"/>
@@ -20799,7 +20580,7 @@
     </row>
     <row r="185" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>188</v>
@@ -20817,7 +20598,7 @@
         <v>130</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="H185"/>
       <c r="I185"/>
@@ -20825,7 +20606,7 @@
     </row>
     <row r="186" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>188</v>
@@ -20843,12 +20624,12 @@
         <v>1149</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="187" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>188</v>
@@ -20889,7 +20670,7 @@
         <v>2765</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -20897,13 +20678,13 @@
     </row>
     <row r="189" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>32</v>
@@ -20915,7 +20696,7 @@
         <v>2766</v>
       </c>
       <c r="G189" s="39" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -20923,7 +20704,7 @@
     </row>
     <row r="190" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>188</v>
@@ -20941,7 +20722,7 @@
         <v>2767</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="H190"/>
       <c r="I190"/>
@@ -20949,7 +20730,7 @@
     </row>
     <row r="191" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>188</v>
@@ -20967,7 +20748,7 @@
         <v>2763</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -20975,7 +20756,7 @@
     </row>
     <row r="192" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>188</v>
@@ -20993,7 +20774,7 @@
         <v>2768</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -21001,7 +20782,7 @@
     </row>
     <row r="193" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>188</v>
@@ -21019,7 +20800,7 @@
         <v>39</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
@@ -21027,7 +20808,7 @@
     </row>
     <row r="194" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>188</v>
@@ -21045,7 +20826,7 @@
         <v>193</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -21053,13 +20834,13 @@
     </row>
     <row r="195" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>32</v>
@@ -21071,7 +20852,7 @@
         <v>2769</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="H195"/>
       <c r="I195"/>
@@ -21079,7 +20860,7 @@
     </row>
     <row r="196" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>188</v>
@@ -21102,13 +20883,13 @@
     </row>
     <row r="197" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>2325</v>
@@ -21120,12 +20901,12 @@
         <v>2006</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>188</v>
@@ -21143,21 +20924,21 @@
         <v>2050</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B199" s="22" t="s">
         <v>188</v>
       </c>
       <c r="C199" s="6" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>3811</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>3812</v>
       </c>
       <c r="E199" s="9">
         <v>2007</v>
@@ -21174,7 +20955,7 @@
     </row>
     <row r="200" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>188</v>
@@ -21218,12 +20999,12 @@
         <v>2771</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="202" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>188</v>
@@ -21241,18 +21022,18 @@
         <v>203</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="21" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="D203" s="12" t="s">
         <v>32</v>
@@ -21269,7 +21050,7 @@
     </row>
     <row r="204" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>188</v>
@@ -21292,7 +21073,7 @@
     </row>
     <row r="205" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>188</v>
@@ -21310,12 +21091,12 @@
         <v>2772</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>188</v>
@@ -21338,7 +21119,7 @@
     </row>
     <row r="207" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>188</v>
@@ -21361,13 +21142,13 @@
     </row>
     <row r="208" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>1437</v>
@@ -21379,18 +21160,18 @@
         <v>151</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="21" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>1704</v>
@@ -21407,7 +21188,7 @@
     </row>
     <row r="210" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>188</v>
@@ -21416,7 +21197,7 @@
         <v>3388</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E210" s="9">
         <v>2022</v>
@@ -21425,18 +21206,18 @@
         <v>2773</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="211" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>2327</v>
@@ -21448,7 +21229,7 @@
         <v>1609</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
@@ -21456,7 +21237,7 @@
     </row>
     <row r="212" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>188</v>
@@ -21474,7 +21255,7 @@
         <v>1660</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -21482,7 +21263,7 @@
     </row>
     <row r="213" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>188</v>
@@ -21500,7 +21281,7 @@
         <v>2774</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
@@ -21508,7 +21289,7 @@
     </row>
     <row r="214" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>188</v>
@@ -21526,12 +21307,12 @@
         <v>2775</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="215" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>188</v>
@@ -21549,7 +21330,7 @@
         <v>341</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="216" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21572,12 +21353,12 @@
         <v>2777</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="217" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>188</v>
@@ -21595,18 +21376,18 @@
         <v>101</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="218" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>32</v>
@@ -21618,12 +21399,12 @@
         <v>2778</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="219" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>188</v>
@@ -21638,15 +21419,15 @@
         <v>2022</v>
       </c>
       <c r="F219" s="35" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="G219" s="40" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="220" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>213</v>
@@ -21664,18 +21445,18 @@
         <v>217</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="221" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>213</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>32</v>
@@ -21687,18 +21468,18 @@
         <v>2780</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="222" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>32</v>
@@ -21710,18 +21491,18 @@
         <v>2781</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="223" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>14</v>
@@ -21733,12 +21514,12 @@
         <v>2023</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="224" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>213</v>
@@ -21756,12 +21537,12 @@
         <v>1156</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="225" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>213</v>
@@ -21784,13 +21565,13 @@
     </row>
     <row r="226" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>2268</v>
@@ -21802,12 +21583,12 @@
         <v>229</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="227" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>213</v>
@@ -21825,7 +21606,7 @@
         <v>1158</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -21833,7 +21614,7 @@
     </row>
     <row r="228" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>213</v>
@@ -21851,7 +21632,7 @@
         <v>1607</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -21859,7 +21640,7 @@
     </row>
     <row r="229" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>213</v>
@@ -21877,7 +21658,7 @@
         <v>1160</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -21885,13 +21666,13 @@
     </row>
     <row r="230" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>2330</v>
@@ -21903,7 +21684,7 @@
         <v>1606</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -21911,7 +21692,7 @@
     </row>
     <row r="231" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>213</v>
@@ -21920,7 +21701,7 @@
         <v>1161</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="E231" s="9">
         <v>2015</v>
@@ -21929,7 +21710,7 @@
         <v>1605</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -21937,7 +21718,7 @@
     </row>
     <row r="232" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>213</v>
@@ -21955,7 +21736,7 @@
         <v>2333</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -21963,7 +21744,7 @@
     </row>
     <row r="233" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>213</v>
@@ -21981,7 +21762,7 @@
         <v>240</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -21989,7 +21770,7 @@
     </row>
     <row r="234" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>213</v>
@@ -22007,18 +21788,18 @@
         <v>2024</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="235" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C235" s="6" t="s">
         <v>3895</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>3883</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>3896</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>14</v>
@@ -22038,7 +21819,7 @@
         <v>2782</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>3383</v>
@@ -22053,15 +21834,15 @@
         <v>2783</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="237" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>1163</v>
@@ -22076,15 +21857,15 @@
         <v>1164</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="238" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>3365</v>
@@ -22099,7 +21880,7 @@
         <v>2737</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="239" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22107,7 +21888,7 @@
         <v>2784</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>3384</v>
@@ -22122,18 +21903,18 @@
         <v>2785</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="240" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="21" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C240" s="12" t="s">
         <v>3899</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>3883</v>
-      </c>
-      <c r="C240" s="12" t="s">
-        <v>3900</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>32</v>
@@ -22150,13 +21931,13 @@
     </row>
     <row r="241" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C241" s="6" t="s">
         <v>3601</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>3883</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>3602</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>32</v>
@@ -22168,15 +21949,15 @@
         <v>2749</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="242" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>2334</v>
@@ -22199,13 +21980,13 @@
     </row>
     <row r="243" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C243" s="6" t="s">
         <v>3902</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>3883</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>3903</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>32</v>
@@ -22214,10 +21995,10 @@
         <v>2021</v>
       </c>
       <c r="F243" s="36" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
@@ -22225,10 +22006,10 @@
     </row>
     <row r="244" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>2335</v>
@@ -22243,15 +22024,15 @@
         <v>1604</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="245" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>1165</v>
@@ -22266,15 +22047,15 @@
         <v>1166</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="246" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>1167</v>
@@ -22289,18 +22070,18 @@
         <v>1654</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="247" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="38" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>3608</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>3883</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>3609</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>2285</v>
@@ -22312,7 +22093,7 @@
         <v>2750</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
@@ -22323,10 +22104,10 @@
         <v>2786</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>1089</v>
@@ -22338,21 +22119,21 @@
         <v>2787</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="249" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>3892</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>3883</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>3893</v>
-      </c>
       <c r="D249" s="6" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E249" s="9">
         <v>2023</v>
@@ -22361,7 +22142,7 @@
         <v>2788</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="250" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22384,7 +22165,7 @@
         <v>2790</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -22407,7 +22188,7 @@
         <v>2792</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -22415,13 +22196,13 @@
     </row>
     <row r="252" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>1708</v>
@@ -22438,7 +22219,7 @@
     </row>
     <row r="253" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>241</v>
@@ -22456,7 +22237,7 @@
         <v>1170</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -22464,7 +22245,7 @@
     </row>
     <row r="254" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>241</v>
@@ -22487,13 +22268,13 @@
     </row>
     <row r="255" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>32</v>
@@ -22510,7 +22291,7 @@
     </row>
     <row r="256" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>241</v>
@@ -22533,7 +22314,7 @@
     </row>
     <row r="257" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>241</v>
@@ -22556,7 +22337,7 @@
     </row>
     <row r="258" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="21" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B258" s="12" t="s">
         <v>241</v>
@@ -22579,7 +22360,7 @@
     </row>
     <row r="259" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>241</v>
@@ -22597,7 +22378,7 @@
         <v>251</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
@@ -22605,7 +22386,7 @@
     </row>
     <row r="260" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>241</v>
@@ -22631,7 +22412,7 @@
     </row>
     <row r="261" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>241</v>
@@ -22649,7 +22430,7 @@
         <v>1172</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
@@ -22657,16 +22438,16 @@
     </row>
     <row r="262" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C262" s="6" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D262" s="6" t="s">
         <v>3926</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>3927</v>
       </c>
       <c r="E262" s="9">
         <v>2015</v>
@@ -22675,12 +22456,12 @@
         <v>2341</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>241</v>
@@ -22703,7 +22484,7 @@
     </row>
     <row r="264" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>241</v>
@@ -22726,7 +22507,7 @@
     </row>
     <row r="265" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>241</v>
@@ -22749,7 +22530,7 @@
     </row>
     <row r="266" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>241</v>
@@ -22775,7 +22556,7 @@
     </row>
     <row r="267" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>241</v>
@@ -22793,12 +22574,12 @@
         <v>264</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>265</v>
@@ -22816,7 +22597,7 @@
         <v>2020</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="H268"/>
       <c r="I268"/>
@@ -22824,7 +22605,7 @@
     </row>
     <row r="269" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>265</v>
@@ -22856,7 +22637,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>32</v>
@@ -22876,7 +22657,7 @@
     </row>
     <row r="271" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>265</v>
@@ -22902,7 +22683,7 @@
     </row>
     <row r="272" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>265</v>
@@ -22928,7 +22709,7 @@
     </row>
     <row r="273" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>265</v>
@@ -22954,7 +22735,7 @@
     </row>
     <row r="274" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>265</v>
@@ -22980,7 +22761,7 @@
     </row>
     <row r="275" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>265</v>
@@ -23003,13 +22784,13 @@
     </row>
     <row r="276" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>27</v>
@@ -23021,12 +22802,12 @@
         <v>2794</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="277" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>285</v>
@@ -23044,12 +22825,12 @@
         <v>1555</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>285</v>
@@ -23067,12 +22848,12 @@
         <v>2795</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>285</v>
@@ -23095,7 +22876,7 @@
     </row>
     <row r="280" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>285</v>
@@ -23118,7 +22899,7 @@
     </row>
     <row r="281" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>285</v>
@@ -23141,13 +22922,13 @@
     </row>
     <row r="282" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>2345</v>
@@ -23159,18 +22940,18 @@
         <v>1173</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="15" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>32</v>
@@ -23187,7 +22968,7 @@
     </row>
     <row r="284" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>285</v>
@@ -23213,13 +22994,13 @@
     </row>
     <row r="285" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>2268</v>
@@ -23231,12 +23012,12 @@
         <v>1174</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>285</v>
@@ -23262,7 +23043,7 @@
     </row>
     <row r="287" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>285</v>
@@ -23288,7 +23069,7 @@
     </row>
     <row r="288" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>285</v>
@@ -23306,7 +23087,7 @@
         <v>2025</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
@@ -23337,7 +23118,7 @@
     </row>
     <row r="290" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>285</v>
@@ -23355,7 +23136,7 @@
         <v>1175</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="291" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -23378,7 +23159,7 @@
         <v>2810</v>
       </c>
       <c r="G291" s="37" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
@@ -23386,7 +23167,7 @@
     </row>
     <row r="292" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>285</v>
@@ -23412,7 +23193,7 @@
     </row>
     <row r="293" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>285</v>
@@ -23458,7 +23239,7 @@
     </row>
     <row r="295" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="11" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>285</v>
@@ -23507,7 +23288,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="15" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>285</v>
@@ -23539,7 +23320,7 @@
         <v>3420</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="E298" s="9">
         <v>2011</v>
@@ -23556,7 +23337,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>285</v>
@@ -23582,7 +23363,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>285</v>
@@ -23600,7 +23381,7 @@
         <v>1557</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -23634,7 +23415,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>285</v>
@@ -23652,7 +23433,7 @@
         <v>1176</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -23660,7 +23441,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>285</v>
@@ -23678,7 +23459,7 @@
         <v>302</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
@@ -23686,13 +23467,13 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="B304" s="23" t="s">
         <v>285</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>2285</v>
@@ -23704,7 +23485,7 @@
         <v>1652</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
@@ -23712,7 +23493,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>285</v>
@@ -23770,7 +23551,7 @@
         <v>285</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>2431</v>
@@ -23782,7 +23563,7 @@
         <v>1639</v>
       </c>
       <c r="G307" s="8" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
@@ -23790,7 +23571,7 @@
     </row>
     <row r="308" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>285</v>
@@ -23808,7 +23589,7 @@
         <v>307</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -23828,7 +23609,7 @@
         <v>2020</v>
       </c>
       <c r="F309" s="35" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>2831</v>
@@ -23839,13 +23620,13 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="B310" s="23" t="s">
         <v>285</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>2254</v>
@@ -23857,7 +23638,7 @@
         <v>1177</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
@@ -23865,7 +23646,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>285</v>
@@ -23891,7 +23672,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>285</v>
@@ -23909,7 +23690,7 @@
         <v>1641</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
@@ -23917,7 +23698,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>285</v>
@@ -23932,10 +23713,10 @@
         <v>2021</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -23943,7 +23724,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>285</v>
@@ -24044,7 +23825,7 @@
     </row>
     <row r="318" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>285</v>
@@ -24070,7 +23851,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>285</v>
@@ -24116,13 +23897,13 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>2268</v>
@@ -24162,7 +23943,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>285</v>
@@ -24200,7 +23981,7 @@
         <v>2015</v>
       </c>
       <c r="F324" s="36" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>2855</v>
@@ -24226,12 +24007,12 @@
         <v>2857</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="326" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B326" s="18" t="s">
         <v>285</v>
@@ -24254,7 +24035,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>285</v>
@@ -24263,7 +24044,7 @@
         <v>3409</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="E327" s="9">
         <v>2011</v>
@@ -24272,7 +24053,7 @@
         <v>2858</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -24280,7 +24061,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>285</v>
@@ -24306,7 +24087,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>285</v>
@@ -24335,7 +24116,7 @@
         <v>285</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>2860</v>
@@ -24347,7 +24128,7 @@
         <v>2861</v>
       </c>
       <c r="G330" s="40" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -24358,7 +24139,7 @@
         <v>285</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>3431</v>
@@ -24375,7 +24156,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>322</v>
@@ -24393,12 +24174,12 @@
         <v>1178</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>322</v>
@@ -24416,12 +24197,12 @@
         <v>324</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>322</v>
@@ -24444,13 +24225,13 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>2268</v>
@@ -24462,12 +24243,12 @@
         <v>327</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>322</v>
@@ -24493,7 +24274,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>322</v>
@@ -24511,7 +24292,7 @@
         <v>332</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
@@ -24537,7 +24318,7 @@
         <v>2863</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
@@ -24545,7 +24326,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>322</v>
@@ -24563,12 +24344,12 @@
         <v>2008</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>322</v>
@@ -24609,12 +24390,12 @@
         <v>2771</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>322</v>
@@ -24655,12 +24436,12 @@
         <v>2865</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>322</v>
@@ -24678,12 +24459,12 @@
         <v>339</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>322</v>
@@ -24701,7 +24482,7 @@
         <v>341</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
@@ -24709,7 +24490,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>322</v>
@@ -24727,7 +24508,7 @@
         <v>1179</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
@@ -24735,13 +24516,13 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>14</v>
@@ -24753,19 +24534,19 @@
         <v>1180</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="H347" s="14"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>32</v>
@@ -24777,13 +24558,13 @@
         <v>2866</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="H348" s="14"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>342</v>
@@ -24801,13 +24582,13 @@
         <v>131</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="H349" s="4"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>342</v>
@@ -24825,12 +24606,12 @@
         <v>343</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>344</v>
@@ -24848,13 +24629,13 @@
         <v>36</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="H351" s="4"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>344</v>
@@ -24872,12 +24653,12 @@
         <v>2026</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>344</v>
@@ -24895,19 +24676,19 @@
         <v>1181</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="H353" s="8"/>
     </row>
     <row r="354" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="12" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>342</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="D354" s="8" t="s">
         <v>32</v>
@@ -24919,13 +24700,13 @@
         <v>1711</v>
       </c>
       <c r="G354" s="12" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="H354" s="12"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>344</v>
@@ -24943,13 +24724,13 @@
         <v>1154</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="H355" s="12"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>344</v>
@@ -24967,13 +24748,13 @@
         <v>346</v>
       </c>
       <c r="G356" s="6" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="H356" s="12"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>344</v>
@@ -24991,12 +24772,12 @@
         <v>336</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="358" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>344</v>
@@ -25014,7 +24795,7 @@
         <v>348</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="H358" s="30"/>
       <c r="I358" s="30"/>
@@ -25022,7 +24803,7 @@
     </row>
     <row r="359" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>344</v>
@@ -25040,7 +24821,7 @@
         <v>338</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="H359" s="30"/>
       <c r="I359" s="30"/>
@@ -25048,7 +24829,7 @@
     </row>
     <row r="360" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>344</v>
@@ -25066,7 +24847,7 @@
         <v>2009</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="H360" s="30"/>
       <c r="I360" s="30"/>
@@ -25074,7 +24855,7 @@
     </row>
     <row r="361" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>344</v>
@@ -25092,7 +24873,7 @@
         <v>350</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="H361" s="30"/>
       <c r="I361" s="30"/>
@@ -25100,13 +24881,13 @@
     </row>
     <row r="362" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>14</v>
@@ -25118,7 +24899,7 @@
         <v>351</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="H362" s="30"/>
       <c r="I362" s="30"/>
@@ -25126,7 +24907,7 @@
     </row>
     <row r="363" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>344</v>
@@ -25144,7 +24925,7 @@
         <v>1558</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="H363" s="30"/>
       <c r="I363" s="30"/>
@@ -25152,13 +24933,13 @@
     </row>
     <row r="364" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>2268</v>
@@ -25170,7 +24951,7 @@
         <v>1632</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="H364" s="30"/>
       <c r="I364" s="30"/>
@@ -25178,13 +24959,13 @@
     </row>
     <row r="365" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>2394</v>
@@ -25196,7 +24977,7 @@
         <v>3427</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="H365" s="30"/>
       <c r="I365" s="30"/>
@@ -25204,10 +24985,10 @@
     </row>
     <row r="366" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B366" s="8" t="s">
         <v>4072</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>4073</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>2367</v>
@@ -25230,10 +25011,10 @@
     </row>
     <row r="367" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>353</v>
@@ -25248,18 +25029,18 @@
         <v>354</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>4331</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>4076</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>4332</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>4077</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>2338</v>
@@ -25271,7 +25052,7 @@
         <v>1559</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="H368" s="32"/>
       <c r="I368" s="32"/>
@@ -25279,13 +25060,13 @@
     </row>
     <row r="369" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>4079</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>4080</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>32</v>
@@ -25297,7 +25078,7 @@
         <v>2867</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="H369" s="34"/>
       <c r="I369" s="34"/>
@@ -25305,13 +25086,13 @@
     </row>
     <row r="370" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C370" s="8" t="s">
         <v>4082</v>
-      </c>
-      <c r="B370" s="8" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>4083</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>14</v>
@@ -25331,10 +25112,10 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C371" s="8" t="s">
         <v>3413</v>
@@ -25349,7 +25130,7 @@
         <v>2868</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="H371" s="34"/>
       <c r="I371" s="34"/>
@@ -25357,10 +25138,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>356</v>
@@ -25375,7 +25156,7 @@
         <v>1601</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="H372" s="34"/>
       <c r="I372" s="34"/>
@@ -25383,10 +25164,10 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C373" s="8" t="s">
         <v>357</v>
@@ -25401,7 +25182,7 @@
         <v>358</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="H373" s="32"/>
       <c r="I373" s="32"/>
@@ -25409,10 +25190,10 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>359</v>
@@ -25427,7 +25208,7 @@
         <v>360</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="H374" s="32"/>
       <c r="I374" s="32"/>
@@ -25435,10 +25216,10 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>2368</v>
@@ -25453,7 +25234,7 @@
         <v>1602</v>
       </c>
       <c r="G375" s="6" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="H375" s="32"/>
       <c r="I375" s="32"/>
@@ -25461,10 +25242,10 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>2217</v>
@@ -25487,13 +25268,13 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C377" s="6" t="s">
         <v>4095</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>4096</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>1603</v>
@@ -25505,7 +25286,7 @@
         <v>1182</v>
       </c>
       <c r="G377" s="6" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="H377" s="34"/>
       <c r="I377" s="34"/>
@@ -25513,13 +25294,13 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C378" s="6" t="s">
         <v>4098</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>4099</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>14</v>
@@ -25531,21 +25312,21 @@
         <v>1183</v>
       </c>
       <c r="G378" s="6" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C379" s="6" t="s">
         <v>4101</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C379" s="6" t="s">
+      <c r="D379" s="6" t="s">
         <v>4102</v>
-      </c>
-      <c r="D379" s="6" t="s">
-        <v>4103</v>
       </c>
       <c r="E379" s="9">
         <v>2014</v>
@@ -25554,7 +25335,7 @@
         <v>1184</v>
       </c>
       <c r="G379" s="6" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="H379" s="34"/>
       <c r="I379" s="34"/>
@@ -25562,13 +25343,13 @@
     </row>
     <row r="380" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C380" s="8" t="s">
         <v>4105</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C380" s="8" t="s">
-        <v>4106</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>14</v>
@@ -25580,7 +25361,7 @@
         <v>361</v>
       </c>
       <c r="G380" s="6" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="H380" s="32"/>
       <c r="I380" s="32"/>
@@ -25588,10 +25369,10 @@
     </row>
     <row r="381" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>2247</v>
@@ -25606,7 +25387,7 @@
         <v>362</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="H381" s="32"/>
       <c r="I381" s="32"/>
@@ -25614,10 +25395,10 @@
     </row>
     <row r="382" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C382" s="8" t="s">
         <v>363</v>
@@ -25632,7 +25413,7 @@
         <v>364</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="H382" s="32"/>
       <c r="I382" s="32"/>
@@ -25640,10 +25421,10 @@
     </row>
     <row r="383" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>2370</v>
@@ -25658,7 +25439,7 @@
         <v>365</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="H383" s="32"/>
       <c r="I383" s="32"/>
@@ -25666,10 +25447,10 @@
     </row>
     <row r="384" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>2371</v>
@@ -25684,7 +25465,7 @@
         <v>366</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="H384" s="32"/>
       <c r="I384" s="32"/>
@@ -25695,10 +25476,10 @@
         <v>2869</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>32</v>
@@ -25710,7 +25491,7 @@
         <v>2870</v>
       </c>
       <c r="G385" s="40" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="H385" s="34"/>
       <c r="I385" s="34"/>
@@ -25718,10 +25499,10 @@
     </row>
     <row r="386" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>2373</v>
@@ -25741,10 +25522,10 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>2374</v>
@@ -25759,7 +25540,7 @@
         <v>367</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="H387" s="34"/>
       <c r="I387" s="34"/>
@@ -25767,7 +25548,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>369</v>
@@ -25785,7 +25566,7 @@
         <v>370</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="H388" s="32"/>
       <c r="I388" s="32"/>
@@ -25793,7 +25574,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>369</v>
@@ -25811,7 +25592,7 @@
         <v>372</v>
       </c>
       <c r="G389" s="8" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="H389" s="32"/>
       <c r="I389" s="32"/>
@@ -25819,13 +25600,13 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="11" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>32</v>
@@ -25837,7 +25618,7 @@
         <v>2871</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="H390" s="34"/>
       <c r="I390" s="34"/>
@@ -25845,7 +25626,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>369</v>
@@ -25863,7 +25644,7 @@
         <v>374</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="H391" s="32"/>
       <c r="I391" s="32"/>
@@ -25871,7 +25652,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>369</v>
@@ -25897,13 +25678,13 @@
     </row>
     <row r="393" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>14</v>
@@ -25915,7 +25696,7 @@
         <v>377</v>
       </c>
       <c r="G393" s="6" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="H393" s="34"/>
       <c r="I393" s="34"/>
@@ -25923,7 +25704,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>369</v>
@@ -25941,7 +25722,7 @@
         <v>379</v>
       </c>
       <c r="G394" s="6" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="H394" s="32"/>
       <c r="I394" s="32"/>
@@ -25967,7 +25748,7 @@
         <v>2785</v>
       </c>
       <c r="G395" s="6" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="H395" s="32"/>
       <c r="I395" s="32"/>
@@ -25975,7 +25756,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>369</v>
@@ -25993,7 +25774,7 @@
         <v>381</v>
       </c>
       <c r="G396" s="6" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="H396" s="34"/>
       <c r="I396" s="34"/>
@@ -26001,7 +25782,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="11" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>369</v>
@@ -26019,7 +25800,7 @@
         <v>1185</v>
       </c>
       <c r="G397" s="6" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="H397" s="34"/>
       <c r="I397" s="34"/>
@@ -26027,13 +25808,13 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="11" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>2141</v>
@@ -26045,7 +25826,7 @@
         <v>902</v>
       </c>
       <c r="G398" s="12" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="H398" s="32"/>
       <c r="I398" s="32"/>
@@ -26053,13 +25834,13 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>32</v>
@@ -26071,7 +25852,7 @@
         <v>1891</v>
       </c>
       <c r="G399" s="12" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="H399" s="32"/>
       <c r="I399" s="32"/>
@@ -26079,13 +25860,13 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="11" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>14</v>
@@ -26097,7 +25878,7 @@
         <v>1658</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="H400" s="34"/>
       <c r="I400" s="34"/>
@@ -26105,13 +25886,13 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>2240</v>
@@ -26123,7 +25904,7 @@
         <v>382</v>
       </c>
       <c r="G401" s="6" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="H401" s="34"/>
       <c r="I401" s="34"/>
@@ -26131,13 +25912,13 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>32</v>
@@ -26157,7 +25938,7 @@
     </row>
     <row r="403" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>369</v>
@@ -26183,7 +25964,7 @@
     </row>
     <row r="404" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>369</v>
@@ -26201,7 +25982,7 @@
         <v>233</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="H404" s="32"/>
       <c r="I404" s="32"/>
@@ -26215,7 +25996,7 @@
         <v>369</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>32</v>
@@ -26227,7 +26008,7 @@
         <v>2873</v>
       </c>
       <c r="G405" s="6" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="H405" s="34"/>
       <c r="I405" s="34"/>
@@ -26235,7 +26016,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="11" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>369</v>
@@ -26261,13 +26042,13 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="B407" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>32</v>
@@ -26279,7 +26060,7 @@
         <v>2874</v>
       </c>
       <c r="G407" s="6" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="H407" s="32"/>
       <c r="I407" s="32"/>
@@ -26287,7 +26068,7 @@
     </row>
     <row r="408" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>369</v>
@@ -26305,7 +26086,7 @@
         <v>384</v>
       </c>
       <c r="G408" s="6" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="H408" s="32"/>
       <c r="I408" s="32"/>
@@ -26313,13 +26094,13 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="11" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>2565</v>
@@ -26331,7 +26112,7 @@
         <v>934</v>
       </c>
       <c r="G409" s="12" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="H409" s="34"/>
       <c r="I409" s="34"/>
@@ -26339,13 +26120,13 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>32</v>
@@ -26357,7 +26138,7 @@
         <v>2875</v>
       </c>
       <c r="G410" s="6" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="H410" s="32"/>
       <c r="I410" s="32"/>
@@ -26365,13 +26146,13 @@
     </row>
     <row r="411" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="11" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>14</v>
@@ -26383,7 +26164,7 @@
         <v>1186</v>
       </c>
       <c r="G411" s="6" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="H411" s="32"/>
       <c r="I411" s="32"/>
@@ -26391,7 +26172,7 @@
     </row>
     <row r="412" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>369</v>
@@ -26409,7 +26190,7 @@
         <v>235</v>
       </c>
       <c r="G412" s="6" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="H412" s="32"/>
       <c r="I412" s="32"/>
@@ -26417,13 +26198,13 @@
     </row>
     <row r="413" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>14</v>
@@ -26435,7 +26216,7 @@
         <v>1187</v>
       </c>
       <c r="G413" s="6" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="H413" s="32"/>
       <c r="I413" s="32"/>
@@ -26443,13 +26224,13 @@
     </row>
     <row r="414" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>2395</v>
@@ -26461,7 +26242,7 @@
         <v>1637</v>
       </c>
       <c r="G414" s="8" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="H414" s="34"/>
       <c r="I414" s="34"/>
@@ -26475,7 +26256,7 @@
         <v>369</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>1089</v>
@@ -26487,7 +26268,7 @@
         <v>2787</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="H415" s="32"/>
       <c r="I415" s="32"/>
@@ -26495,7 +26276,7 @@
     </row>
     <row r="416" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>369</v>
@@ -26513,7 +26294,7 @@
         <v>236</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="H416" s="32"/>
       <c r="I416" s="32"/>
@@ -26521,7 +26302,7 @@
     </row>
     <row r="417" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>369</v>
@@ -26539,7 +26320,7 @@
         <v>238</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="H417" s="32"/>
       <c r="I417" s="32"/>
@@ -26547,7 +26328,7 @@
     </row>
     <row r="418" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>369</v>
@@ -26565,7 +26346,7 @@
         <v>385</v>
       </c>
       <c r="G418" s="8" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="H418" s="32"/>
       <c r="I418" s="32"/>
@@ -26573,13 +26354,13 @@
     </row>
     <row r="419" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>14</v>
@@ -26591,7 +26372,7 @@
         <v>1188</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="H419" s="34"/>
       <c r="I419" s="34"/>
@@ -26599,13 +26380,13 @@
     </row>
     <row r="420" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="11" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>2876</v>
@@ -26617,7 +26398,7 @@
         <v>2877</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="H420" s="32"/>
       <c r="I420" s="32"/>
@@ -26625,13 +26406,13 @@
     </row>
     <row r="421" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="11" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>29</v>
@@ -26643,7 +26424,7 @@
         <v>2878</v>
       </c>
       <c r="G421" s="6" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="H421" s="32"/>
       <c r="I421" s="32"/>
@@ -26651,7 +26432,7 @@
     </row>
     <row r="422" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>369</v>
@@ -26669,7 +26450,7 @@
         <v>2879</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="H422" s="32"/>
       <c r="I422" s="32"/>
@@ -26677,13 +26458,13 @@
     </row>
     <row r="423" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>3415</v>
@@ -26695,7 +26476,7 @@
         <v>2880</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="H423" s="32"/>
       <c r="I423" s="32"/>
@@ -26703,16 +26484,16 @@
     </row>
     <row r="424" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E424" s="9">
         <v>2023</v>
@@ -26721,7 +26502,7 @@
         <v>2788</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="H424" s="34"/>
       <c r="I424" s="34"/>
@@ -26735,7 +26516,7 @@
         <v>369</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>2779</v>
@@ -26744,10 +26525,10 @@
         <v>2022</v>
       </c>
       <c r="F425" s="35" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="G425" s="40" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="H425" s="32"/>
       <c r="I425" s="32"/>
@@ -26755,13 +26536,13 @@
     </row>
     <row r="426" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>386</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>368</v>
@@ -26773,7 +26554,7 @@
         <v>387</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="H426" s="32"/>
       <c r="I426" s="32"/>
@@ -26781,13 +26562,13 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>2266</v>
@@ -26799,7 +26580,7 @@
         <v>2882</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="H427" s="32"/>
       <c r="I427" s="32"/>
@@ -26807,13 +26588,13 @@
     </row>
     <row r="428" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>2141</v>
@@ -26825,7 +26606,7 @@
         <v>1190</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="H428" s="32"/>
       <c r="I428" s="32"/>
@@ -26833,7 +26614,7 @@
     </row>
     <row r="429" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="8" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="B429" s="8" t="s">
         <v>386</v>
@@ -26859,13 +26640,13 @@
     </row>
     <row r="430" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>32</v>
@@ -26877,7 +26658,7 @@
         <v>2883</v>
       </c>
       <c r="G430" s="6" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="H430" s="32"/>
       <c r="I430" s="32"/>
@@ -26885,7 +26666,7 @@
     </row>
     <row r="431" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="8" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B431" s="8" t="s">
         <v>386</v>
@@ -26900,7 +26681,7 @@
         <v>2019</v>
       </c>
       <c r="F431" s="8" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="G431" s="6" t="s">
         <v>393</v>
@@ -26911,7 +26692,7 @@
     </row>
     <row r="432" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>386</v>
@@ -26937,7 +26718,7 @@
     </row>
     <row r="433" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="8" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>386</v>
@@ -26963,7 +26744,7 @@
     </row>
     <row r="434" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>386</v>
@@ -26981,7 +26762,7 @@
         <v>1636</v>
       </c>
       <c r="G434" s="6" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="H434" s="32"/>
       <c r="I434" s="32"/>
@@ -26989,16 +26770,16 @@
     </row>
     <row r="435" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="C435" s="6" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D435" s="6" t="s">
         <v>4222</v>
-      </c>
-      <c r="D435" s="6" t="s">
-        <v>4223</v>
       </c>
       <c r="E435" s="9">
         <v>2020</v>
@@ -27007,7 +26788,7 @@
         <v>1635</v>
       </c>
       <c r="G435" s="6" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="H435" s="32"/>
       <c r="I435" s="32"/>
@@ -27015,7 +26796,7 @@
     </row>
     <row r="436" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="B436" s="8" t="s">
         <v>386</v>
@@ -27041,7 +26822,7 @@
     </row>
     <row r="437" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>386</v>
@@ -27059,7 +26840,7 @@
         <v>1541</v>
       </c>
       <c r="G437" s="6" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="H437" s="32"/>
       <c r="I437" s="32"/>
@@ -27067,13 +26848,13 @@
     </row>
     <row r="438" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>2431</v>
@@ -27085,7 +26866,7 @@
         <v>2884</v>
       </c>
       <c r="G438" s="6" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="H438" s="32"/>
       <c r="I438" s="32"/>
@@ -27093,7 +26874,7 @@
     </row>
     <row r="439" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>386</v>
@@ -27111,7 +26892,7 @@
         <v>1634</v>
       </c>
       <c r="G439" s="6" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="H439" s="32"/>
       <c r="I439" s="32"/>
@@ -27119,7 +26900,7 @@
     </row>
     <row r="440" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>386</v>
@@ -27137,7 +26918,7 @@
         <v>406</v>
       </c>
       <c r="G440" s="6" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="H440" s="34"/>
       <c r="I440" s="34"/>
@@ -27145,7 +26926,7 @@
     </row>
     <row r="441" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>386</v>
@@ -27163,7 +26944,7 @@
         <v>407</v>
       </c>
       <c r="G441" s="6" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="H441" s="32"/>
       <c r="I441" s="32"/>
@@ -27171,7 +26952,7 @@
     </row>
     <row r="442" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>1189</v>
@@ -27189,7 +26970,7 @@
         <v>1191</v>
       </c>
       <c r="G442" s="6" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="H442" s="32"/>
       <c r="I442" s="32"/>
@@ -27197,13 +26978,13 @@
     </row>
     <row r="443" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>95</v>
@@ -27215,7 +26996,7 @@
         <v>1192</v>
       </c>
       <c r="G443" s="6" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="H443" s="32"/>
       <c r="I443" s="32"/>
@@ -27223,7 +27004,7 @@
     </row>
     <row r="444" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>408</v>
@@ -27241,7 +27022,7 @@
         <v>2027</v>
       </c>
       <c r="G444" s="6" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="H444" s="34"/>
       <c r="I444" s="32"/>
@@ -27249,10 +27030,10 @@
     </row>
     <row r="445" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B445" s="8" t="s">
         <v>4242</v>
-      </c>
-      <c r="B445" s="8" t="s">
-        <v>4243</v>
       </c>
       <c r="C445" s="8" t="s">
         <v>411</v>
@@ -27267,7 +27048,7 @@
         <v>412</v>
       </c>
       <c r="G445" s="6" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="H445" s="32"/>
       <c r="I445" s="32"/>
@@ -27275,10 +27056,10 @@
     </row>
     <row r="446" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>345</v>
@@ -27293,7 +27074,7 @@
         <v>2026</v>
       </c>
       <c r="G446" s="6" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="H446" s="34"/>
       <c r="I446" s="34"/>
@@ -27301,10 +27082,10 @@
     </row>
     <row r="447" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>413</v>
@@ -27319,7 +27100,7 @@
         <v>414</v>
       </c>
       <c r="G447" s="6" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="H447" s="32"/>
       <c r="I447" s="32"/>
@@ -27327,10 +27108,10 @@
     </row>
     <row r="448" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>415</v>
@@ -27345,7 +27126,7 @@
         <v>417</v>
       </c>
       <c r="G448" s="6" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="H448" s="34"/>
       <c r="I448" s="34"/>
@@ -27356,7 +27137,7 @@
         <v>2223</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C449" s="8" t="s">
         <v>2222</v>
@@ -27379,13 +27160,13 @@
     </row>
     <row r="450" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C450" s="6" t="s">
         <v>3801</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>3802</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>32</v>
@@ -27397,7 +27178,7 @@
         <v>2885</v>
       </c>
       <c r="G450" s="6" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="H450" s="32"/>
       <c r="I450" s="32"/>
@@ -27408,7 +27189,7 @@
         <v>2220</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C451" s="8" t="s">
         <v>2219</v>
@@ -27423,7 +27204,7 @@
         <v>2218</v>
       </c>
       <c r="G451" s="8" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="H451" s="32"/>
       <c r="I451" s="32"/>
@@ -27431,10 +27212,10 @@
     </row>
     <row r="452" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="8" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>210</v>
@@ -27449,7 +27230,7 @@
         <v>211</v>
       </c>
       <c r="G452" s="6" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="H452" s="32"/>
       <c r="I452" s="32"/>
@@ -27457,16 +27238,16 @@
     </row>
     <row r="453" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C453" s="6" t="s">
         <v>4252</v>
       </c>
-      <c r="B453" s="8" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C453" s="6" t="s">
+      <c r="D453" s="6" t="s">
         <v>4253</v>
-      </c>
-      <c r="D453" s="6" t="s">
-        <v>4254</v>
       </c>
       <c r="E453" s="9">
         <v>2011</v>
@@ -27475,7 +27256,7 @@
         <v>1315</v>
       </c>
       <c r="G453" s="6" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="H453" s="32"/>
       <c r="I453" s="32"/>
@@ -27483,10 +27264,10 @@
     </row>
     <row r="454" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>1094</v>
@@ -27509,16 +27290,16 @@
     </row>
     <row r="455" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C455" s="6" t="s">
         <v>4257</v>
       </c>
-      <c r="B455" s="8" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C455" s="6" t="s">
+      <c r="D455" s="6" t="s">
         <v>4258</v>
-      </c>
-      <c r="D455" s="6" t="s">
-        <v>4259</v>
       </c>
       <c r="E455" s="9">
         <v>1989</v>
@@ -27527,7 +27308,7 @@
         <v>2051</v>
       </c>
       <c r="G455" s="6" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="H455" s="34"/>
       <c r="I455" s="34"/>
@@ -27535,10 +27316,10 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>2391</v>
@@ -27553,7 +27334,7 @@
         <v>2028</v>
       </c>
       <c r="G456" s="6" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="H456" s="32"/>
       <c r="I456" s="32"/>
@@ -27561,13 +27342,13 @@
     </row>
     <row r="457" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="8" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C457" s="8" t="s">
         <v>4263</v>
-      </c>
-      <c r="B457" s="8" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C457" s="8" t="s">
-        <v>4264</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>2381</v>
@@ -27579,7 +27360,7 @@
         <v>418</v>
       </c>
       <c r="G457" s="6" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="H457" s="32"/>
       <c r="I457" s="32"/>
@@ -27587,7 +27368,7 @@
     </row>
     <row r="458" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>419</v>
@@ -27605,7 +27386,7 @@
         <v>420</v>
       </c>
       <c r="G458" s="8" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="H458" s="34"/>
       <c r="I458" s="34"/>
@@ -27613,7 +27394,7 @@
     </row>
     <row r="459" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="8" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="B459" s="8" t="s">
         <v>419</v>
@@ -27631,7 +27412,7 @@
         <v>1599</v>
       </c>
       <c r="G459" s="6" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="H459" s="32"/>
       <c r="I459" s="32"/>
@@ -27639,13 +27420,13 @@
     </row>
     <row r="460" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="11" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>2268</v>
@@ -27657,7 +27438,7 @@
         <v>2052</v>
       </c>
       <c r="G460" s="6" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="H460" s="34"/>
       <c r="I460" s="34"/>
@@ -27665,7 +27446,7 @@
     </row>
     <row r="461" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>419</v>
@@ -27683,7 +27464,7 @@
         <v>221</v>
       </c>
       <c r="G461" s="6" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="H461" s="34"/>
       <c r="I461" s="34"/>
@@ -27691,7 +27472,7 @@
     </row>
     <row r="462" spans="1:10" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="B462" s="8" t="s">
         <v>419</v>
@@ -27709,19 +27490,19 @@
         <v>423</v>
       </c>
       <c r="G462" s="6" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="H462"/>
     </row>
     <row r="463" spans="1:10" s="4" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>3379</v>
@@ -27733,19 +27514,19 @@
         <v>898</v>
       </c>
       <c r="G463" s="12" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="H463"/>
     </row>
     <row r="464" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>14</v>
@@ -27757,18 +27538,18 @@
         <v>424</v>
       </c>
       <c r="G464" s="8" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="8" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B465" s="8" t="s">
         <v>419</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>2240</v>
@@ -27780,12 +27561,12 @@
         <v>223</v>
       </c>
       <c r="G465" s="6" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="B466" s="8" t="s">
         <v>419</v>
@@ -27803,12 +27584,12 @@
         <v>426</v>
       </c>
       <c r="G466" s="6" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="8" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="B467" s="8" t="s">
         <v>419</v>
@@ -27826,18 +27607,18 @@
         <v>231</v>
       </c>
       <c r="G467" s="6" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="468" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="7" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>2393</v>
@@ -27849,21 +27630,21 @@
         <v>1193</v>
       </c>
       <c r="G468" s="6" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="469" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="B469" s="8" t="s">
         <v>419</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="E469" s="9">
         <v>2019</v>
@@ -27872,7 +27653,7 @@
         <v>427</v>
       </c>
       <c r="G469" s="6" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
@@ -27983,8 +27764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H585"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28099,7 +27880,7 @@
         <v>428</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3440</v>
+        <v>4515</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>32</v>
@@ -28185,16 +27966,16 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>428</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="E9" s="9">
         <v>2020</v>
@@ -28401,7 +28182,7 @@
         <v>2900</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="E18" s="55">
         <v>2022</v>
@@ -28516,7 +28297,7 @@
         <v>443</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="E23" s="9">
         <v>2023</v>
@@ -28608,7 +28389,7 @@
         <v>579</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="E27" s="9">
         <v>2022</v>
@@ -28645,7 +28426,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>428</v>
@@ -28812,16 +28593,16 @@
         <v>454</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="E36" s="9">
         <v>2022</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>1337</v>
@@ -28829,13 +28610,13 @@
     </row>
     <row r="37" spans="1:7" s="50" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>454</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>32</v>
@@ -28844,7 +28625,7 @@
         <v>2022</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>2911</v>
@@ -29097,7 +28878,7 @@
         <v>2022</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>2922</v>
@@ -29272,10 +29053,10 @@
         <v>1319</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>4343</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>4344</v>
       </c>
       <c r="E56" s="9">
         <v>2022</v>
@@ -29459,7 +29240,7 @@
         <v>2442</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="E64" s="9">
         <v>2022</v>
@@ -29519,13 +29300,13 @@
     </row>
     <row r="67" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>1319</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>14</v>
@@ -29557,7 +29338,7 @@
         <v>2022</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>2934</v>
@@ -29574,7 +29355,7 @@
         <v>1223</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E69" s="9">
         <v>2022</v>
@@ -29663,7 +29444,7 @@
         <v>1732</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>14</v>
@@ -29695,7 +29476,7 @@
         <v>2022</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>2949</v>
@@ -29735,7 +29516,7 @@
         <v>2446</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="E76" s="9">
         <v>2022</v>
@@ -29824,7 +29605,7 @@
         <v>2955</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>32</v>
@@ -29956,7 +29737,7 @@
     </row>
     <row r="86" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="34" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>2966</v>
@@ -29971,7 +29752,7 @@
         <v>2022</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>2971</v>
@@ -30054,7 +29835,7 @@
         <v>1732</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>2268</v>
@@ -30215,7 +29996,7 @@
         <v>1732</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="D97" s="34" t="s">
         <v>2381</v>
@@ -30224,7 +30005,7 @@
         <v>2022</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>2981</v>
@@ -30238,7 +30019,7 @@
         <v>1732</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>2565</v>
@@ -30540,7 +30321,7 @@
         <v>1916</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="E111" s="9">
         <v>2022</v>
@@ -30692,7 +30473,7 @@
     </row>
     <row r="118" spans="1:7" s="50" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>1732</v>
@@ -30836,7 +30617,7 @@
         <v>2966</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="D124" s="34" t="s">
         <v>3038</v>
@@ -30928,10 +30709,10 @@
         <v>1198</v>
       </c>
       <c r="C128" s="54" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="D128" s="54" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="E128" s="9">
         <v>2023</v>
@@ -31037,13 +30818,13 @@
     </row>
     <row r="133" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>496</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>32</v>
@@ -31052,7 +30833,7 @@
         <v>2023</v>
       </c>
       <c r="F133" s="48" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>3047</v>
@@ -31066,7 +30847,7 @@
         <v>496</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>32</v>
@@ -31115,7 +30896,7 @@
         <v>3049</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="E136" s="9">
         <v>2021</v>
@@ -31129,13 +30910,13 @@
     </row>
     <row r="137" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>496</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>32</v>
@@ -31204,7 +30985,7 @@
         <v>496</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>1539</v>
@@ -31221,7 +31002,7 @@
     </row>
     <row r="141" spans="1:7" s="50" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A141" s="34" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>3057</v>
@@ -31250,7 +31031,7 @@
         <v>496</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>32</v>
@@ -31273,7 +31054,7 @@
         <v>496</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>32</v>
@@ -31313,13 +31094,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>3067</v>
       </c>
       <c r="C145" s="54" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="D145" s="54" t="s">
         <v>14</v>
@@ -31328,7 +31109,7 @@
         <v>2022</v>
       </c>
       <c r="F145" s="48" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>3068</v>
@@ -31506,7 +31287,7 @@
         <v>2529</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E153" s="9">
         <v>2020</v>
@@ -31529,7 +31310,7 @@
         <v>1735</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E154" s="9">
         <v>2020</v>
@@ -31733,10 +31514,10 @@
         <v>1733</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="E163" s="9">
         <v>2015</v>
@@ -31911,13 +31692,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>1733</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>2325</v>
@@ -31926,7 +31707,7 @@
         <v>2021</v>
       </c>
       <c r="F171" s="57" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>1813</v>
@@ -32078,10 +31859,10 @@
         <v>1733</v>
       </c>
       <c r="C178" s="6" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>4447</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>4448</v>
       </c>
       <c r="E178" s="9">
         <v>2017</v>
@@ -32101,7 +31882,7 @@
         <v>3067</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>32</v>
@@ -32193,7 +31974,7 @@
         <v>1733</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>54</v>
@@ -32285,7 +32066,7 @@
         <v>1733</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>14</v>
@@ -32331,7 +32112,7 @@
         <v>1733</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>32</v>
@@ -32417,13 +32198,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>1733</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>14</v>
@@ -32432,7 +32213,7 @@
         <v>2020</v>
       </c>
       <c r="F193" s="56" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>2639</v>
@@ -32469,10 +32250,10 @@
         <v>1733</v>
       </c>
       <c r="C195" s="58" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D195" s="6" t="s">
         <v>4453</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>4454</v>
       </c>
       <c r="E195" s="9">
         <v>2020</v>
@@ -32561,7 +32342,7 @@
         <v>592</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>32</v>
@@ -32768,7 +32549,7 @@
         <v>3100</v>
       </c>
       <c r="C208" s="34" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>32</v>
@@ -32883,7 +32664,7 @@
         <v>592</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>32</v>
@@ -32923,7 +32704,7 @@
     </row>
     <row r="215" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>592</v>
@@ -32938,7 +32719,7 @@
         <v>2022</v>
       </c>
       <c r="F215" s="48" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>3109</v>
@@ -32952,7 +32733,7 @@
         <v>592</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>14</v>
@@ -33007,7 +32788,7 @@
         <v>2020</v>
       </c>
       <c r="F218" s="57" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>979</v>
@@ -33389,7 +33170,7 @@
         <v>1947</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="D235" s="26" t="s">
         <v>2000</v>
@@ -33421,7 +33202,7 @@
         <v>2022</v>
       </c>
       <c r="F236" s="48" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="G236" s="34" t="s">
         <v>3121</v>
@@ -33429,13 +33210,13 @@
     </row>
     <row r="237" spans="1:7" s="50" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="54" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>3117</v>
       </c>
       <c r="C237" s="54" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="D237" s="54" t="s">
         <v>14</v>
@@ -33444,7 +33225,7 @@
         <v>2022</v>
       </c>
       <c r="F237" s="48" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="G237" s="6" t="s">
         <v>3118</v>
@@ -33458,7 +33239,7 @@
         <v>3117</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>32</v>
@@ -33481,7 +33262,7 @@
         <v>3117</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>32</v>
@@ -33504,7 +33285,7 @@
         <v>3117</v>
       </c>
       <c r="C240" s="54" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="D240" s="54" t="s">
         <v>14</v>
@@ -33628,7 +33409,7 @@
         <v>2022</v>
       </c>
       <c r="F245" s="48" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>3139</v>
@@ -33645,7 +33426,7 @@
         <v>3141</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="E246" s="55">
         <v>2022</v>
@@ -33734,10 +33515,10 @@
         <v>608</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E250" s="9">
         <v>2020</v>
@@ -33757,16 +33538,16 @@
         <v>3144</v>
       </c>
       <c r="C251" s="6" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>4458</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>4459</v>
       </c>
       <c r="E251" s="9">
         <v>2022</v>
       </c>
       <c r="F251" s="48" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="G251" s="6" t="s">
         <v>3145</v>
@@ -33780,7 +33561,7 @@
         <v>611</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>32</v>
@@ -33823,7 +33604,7 @@
         <v>1400</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>2498</v>
@@ -33843,22 +33624,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>611</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="E255" s="9">
         <v>2020</v>
       </c>
       <c r="F255" s="57" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="G255" s="6" t="s">
         <v>1000</v>
@@ -33941,7 +33722,7 @@
         <v>614</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>32</v>
@@ -34013,7 +33794,7 @@
         <v>1963</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="E262" s="9">
         <v>2022</v>
@@ -34056,7 +33837,7 @@
         <v>3154</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>14</v>
@@ -34456,7 +34237,7 @@
         <v>2021</v>
       </c>
       <c r="F281" s="57" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="G281" s="8" t="s">
         <v>2654</v>
@@ -34479,7 +34260,7 @@
         <v>2021</v>
       </c>
       <c r="F282" s="57" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="G282" s="8" t="s">
         <v>2655</v>
@@ -34809,7 +34590,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>614</v>
@@ -34832,13 +34613,13 @@
     </row>
     <row r="298" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>614</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>32</v>
@@ -34878,16 +34659,16 @@
     </row>
     <row r="300" spans="1:7" s="50" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>614</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="E300" s="9">
         <v>2022</v>
@@ -34953,10 +34734,10 @@
         <v>614</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E303" s="9">
         <v>2010</v>
@@ -35002,7 +34783,7 @@
         <v>625</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="E305" s="9">
         <v>2020</v>
@@ -35048,7 +34829,7 @@
         <v>666</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="E307" s="9">
         <v>2020</v>
@@ -35186,7 +34967,7 @@
         <v>2533</v>
       </c>
       <c r="D313" s="59" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="E313" s="9">
         <v>2019</v>
@@ -35206,7 +34987,7 @@
         <v>3154</v>
       </c>
       <c r="C314" s="34" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="D314" s="34" t="s">
         <v>2921</v>
@@ -35229,7 +35010,7 @@
         <v>3154</v>
       </c>
       <c r="C315" s="34" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="D315" s="34" t="s">
         <v>3173</v>
@@ -35261,7 +35042,7 @@
         <v>2023</v>
       </c>
       <c r="F316" s="48" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="G316" s="34" t="s">
         <v>3178</v>
@@ -35298,10 +35079,10 @@
         <v>839</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="E318" s="9">
         <v>2022</v>
@@ -35338,13 +35119,13 @@
     </row>
     <row r="320" spans="1:7" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>839</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="D320" s="8" t="s">
         <v>2450</v>
@@ -35353,7 +35134,7 @@
         <v>2023</v>
       </c>
       <c r="F320" s="56" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="G320" s="12" t="s">
         <v>1978</v>
@@ -35416,7 +35197,7 @@
         <v>1922</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="E323" s="9">
         <v>2022</v>
@@ -35574,10 +35355,10 @@
         <v>839</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E330" s="9">
         <v>2019</v>
@@ -35620,7 +35401,7 @@
         <v>3187</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>32</v>
@@ -35698,7 +35479,7 @@
         <v>2022</v>
       </c>
       <c r="F335" s="48" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="G335" s="34" t="s">
         <v>3196</v>
@@ -35712,7 +35493,7 @@
         <v>852</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>32</v>
@@ -35752,16 +35533,16 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>852</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E338" s="9">
         <v>2021</v>
@@ -36011,7 +35792,7 @@
         <v>852</v>
       </c>
       <c r="C349" s="54" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="D349" s="54" t="s">
         <v>14</v>
@@ -36057,7 +35838,7 @@
         <v>852</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>14</v>
@@ -36097,13 +35878,13 @@
     </row>
     <row r="353" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>1308</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>32</v>
@@ -36112,7 +35893,7 @@
         <v>2022</v>
       </c>
       <c r="F353" s="48" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="G353" s="34" t="s">
         <v>3215</v>
@@ -36149,7 +35930,7 @@
         <v>852</v>
       </c>
       <c r="C355" s="34" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>32</v>
@@ -36218,10 +35999,10 @@
         <v>852</v>
       </c>
       <c r="C358" s="6" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D358" s="6" t="s">
         <v>4468</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>4469</v>
       </c>
       <c r="E358" s="9">
         <v>2021</v>
@@ -36244,7 +36025,7 @@
         <v>881</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="E359" s="9">
         <v>2022</v>
@@ -36258,7 +36039,7 @@
     </row>
     <row r="360" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>1308</v>
@@ -36310,7 +36091,7 @@
         <v>1308</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>2238</v>
@@ -36356,16 +36137,16 @@
         <v>852</v>
       </c>
       <c r="C364" s="34" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="E364" s="55">
         <v>2019</v>
       </c>
       <c r="F364" s="48" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="G364" s="34" t="s">
         <v>3225</v>
@@ -36534,16 +36315,16 @@
     </row>
     <row r="372" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>852</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E372" s="9">
         <v>2019</v>
@@ -36655,7 +36436,7 @@
         <v>852</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>32</v>
@@ -36664,7 +36445,7 @@
         <v>2023</v>
       </c>
       <c r="F377" s="48" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="G377" s="34" t="s">
         <v>3227</v>
@@ -36770,7 +36551,7 @@
         <v>3187</v>
       </c>
       <c r="C382" s="34" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="D382" s="34" t="s">
         <v>2760</v>
@@ -36793,7 +36574,7 @@
         <v>3187</v>
       </c>
       <c r="C383" s="34" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="D383" s="34" t="s">
         <v>3239</v>
@@ -36819,7 +36600,7 @@
         <v>1064</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="E384" s="9">
         <v>2018</v>
@@ -36839,7 +36620,7 @@
         <v>673</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>32</v>
@@ -37233,7 +37014,7 @@
         <v>1047</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="E402" s="9">
         <v>2019</v>
@@ -37276,10 +37057,10 @@
         <v>673</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="E404" s="9">
         <v>2020</v>
@@ -37437,10 +37218,10 @@
         <v>673</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="E411" s="9">
         <v>2019</v>
@@ -37621,7 +37402,7 @@
         <v>3256</v>
       </c>
       <c r="C419" s="34" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="D419" s="34" t="s">
         <v>3239</v>
@@ -37647,13 +37428,13 @@
         <v>3260</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="E420" s="9">
         <v>2022</v>
       </c>
       <c r="F420" s="45" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="G420" s="40" t="s">
         <v>3261</v>
@@ -37713,7 +37494,7 @@
         <v>3263</v>
       </c>
       <c r="C423" s="34" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>32</v>
@@ -37759,7 +37540,7 @@
         <v>779</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>2381</v>
@@ -37845,7 +37626,7 @@
     </row>
     <row r="429" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>1736</v>
@@ -37860,7 +37641,7 @@
         <v>2021</v>
       </c>
       <c r="F429" s="48" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="G429" s="6" t="s">
         <v>3266</v>
@@ -37943,10 +37724,10 @@
         <v>1736</v>
       </c>
       <c r="C433" s="6" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D433" s="6" t="s">
         <v>4479</v>
-      </c>
-      <c r="D433" s="6" t="s">
-        <v>4480</v>
       </c>
       <c r="E433" s="9">
         <v>2019</v>
@@ -38061,7 +37842,7 @@
         <v>1928</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="E438" s="9">
         <v>2022</v>
@@ -38104,10 +37885,10 @@
         <v>1736</v>
       </c>
       <c r="C440" s="8" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D440" s="6" t="s">
         <v>4481</v>
-      </c>
-      <c r="D440" s="6" t="s">
-        <v>4482</v>
       </c>
       <c r="E440" s="9">
         <v>2019</v>
@@ -38121,7 +37902,7 @@
     </row>
     <row r="441" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="10" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>1736</v>
@@ -38136,7 +37917,7 @@
         <v>2020</v>
       </c>
       <c r="F441" s="57" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="G441" s="6" t="s">
         <v>1842</v>
@@ -38205,7 +37986,7 @@
         <v>2020</v>
       </c>
       <c r="F444" s="57" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="G444" s="8" t="s">
         <v>2692</v>
@@ -38311,7 +38092,7 @@
         <v>3268</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>32</v>
@@ -38389,7 +38170,7 @@
         <v>2022</v>
       </c>
       <c r="F452" s="48" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="G452" s="6" t="s">
         <v>3280</v>
@@ -38420,7 +38201,7 @@
     </row>
     <row r="454" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>1736</v>
@@ -38489,7 +38270,7 @@
     </row>
     <row r="457" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>1736</v>
@@ -38587,10 +38368,10 @@
         <v>3268</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="E461" s="9">
         <v>2021</v>
@@ -38707,7 +38488,7 @@
         <v>1199</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E466" s="9">
         <v>2021</v>
@@ -38775,7 +38556,7 @@
         <v>1736</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>2381</v>
@@ -38847,10 +38628,10 @@
         <v>3268</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="E472" s="9">
         <v>2022</v>
@@ -38937,7 +38718,7 @@
     </row>
     <row r="476" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="B476" s="8" t="s">
         <v>1736</v>
@@ -38952,7 +38733,7 @@
         <v>2022</v>
       </c>
       <c r="F476" s="56" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="G476" s="12" t="s">
         <v>1988</v>
@@ -38967,7 +38748,7 @@
         <v>3268</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>32</v>
@@ -39039,7 +38820,7 @@
         <v>3306</v>
       </c>
       <c r="C480" s="34" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>32</v>
@@ -39063,7 +38844,7 @@
         <v>1736</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="D481" s="8" t="s">
         <v>3415</v>
@@ -39225,7 +39006,7 @@
     </row>
     <row r="488" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="B488" s="6" t="s">
         <v>1736</v>
@@ -39255,7 +39036,7 @@
         <v>3268</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="D489" s="6" t="s">
         <v>32</v>
@@ -39279,7 +39060,7 @@
         <v>3268</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>32</v>
@@ -39321,22 +39102,22 @@
     </row>
     <row r="492" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="B492" s="6" t="s">
         <v>3268</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="D492" s="8" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="E492" s="9">
         <v>2019</v>
       </c>
       <c r="F492" s="42" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="G492" s="34" t="s">
         <v>2704</v>
@@ -39430,7 +39211,7 @@
         <v>2021</v>
       </c>
       <c r="F496" s="57" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="G496" s="6" t="s">
         <v>1859</v>
@@ -39510,13 +39291,13 @@
     </row>
     <row r="500" spans="1:8" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>822</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="D500" s="6" t="s">
         <v>32</v>
@@ -39525,7 +39306,7 @@
         <v>2022</v>
       </c>
       <c r="F500" s="48" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="G500" s="34" t="s">
         <v>3322</v>
@@ -39666,7 +39447,7 @@
         <v>2021</v>
       </c>
       <c r="F506" s="57" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="G506" s="8" t="s">
         <v>836</v>
@@ -39690,7 +39471,7 @@
         <v>2020</v>
       </c>
       <c r="F507" s="56" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="G507" s="6" t="s">
         <v>1201</v>
@@ -39705,7 +39486,7 @@
         <v>822</v>
       </c>
       <c r="C508" s="6" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="D508" s="6" t="s">
         <v>32</v>
@@ -39714,7 +39495,7 @@
         <v>2022</v>
       </c>
       <c r="F508" s="48" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="G508" s="34" t="s">
         <v>3327</v>
@@ -39892,10 +39673,10 @@
         <v>699</v>
       </c>
       <c r="C516" s="8" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D516" s="6" t="s">
         <v>4486</v>
-      </c>
-      <c r="D516" s="6" t="s">
-        <v>4487</v>
       </c>
       <c r="E516" s="9">
         <v>2018</v>
@@ -40039,7 +39820,7 @@
         <v>2022</v>
       </c>
       <c r="F522" s="57" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="G522" s="6" t="s">
         <v>2710</v>
@@ -40169,10 +39950,10 @@
         <v>716</v>
       </c>
       <c r="C528" s="8" t="s">
+        <v>4487</v>
+      </c>
+      <c r="D528" s="40" t="s">
         <v>4488</v>
-      </c>
-      <c r="D528" s="40" t="s">
-        <v>4489</v>
       </c>
       <c r="E528" s="9">
         <v>2008</v>
@@ -40395,16 +40176,16 @@
     </row>
     <row r="538" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="8" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="B538" s="8" t="s">
         <v>1737</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="E538" s="9">
         <v>2018</v>
@@ -40493,7 +40274,7 @@
         <v>1737</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="D542" s="6" t="s">
         <v>14</v>
@@ -40656,7 +40437,7 @@
         <v>3333</v>
       </c>
       <c r="C549" s="6" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="D549" s="6" t="s">
         <v>32</v>
@@ -40772,10 +40553,10 @@
         <v>747</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E554" s="9">
         <v>2020</v>
@@ -40795,10 +40576,10 @@
         <v>747</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="D555" s="6" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="E555" s="9">
         <v>2020</v>
@@ -40904,13 +40685,13 @@
     </row>
     <row r="560" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="8" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="B560" s="8" t="s">
         <v>747</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="D560" s="6" t="s">
         <v>1437</v>
@@ -40956,7 +40737,7 @@
         <v>747</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="D562" s="6" t="s">
         <v>14</v>
@@ -40988,7 +40769,7 @@
         <v>2009</v>
       </c>
       <c r="F563" s="48" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="G563" s="8" t="s">
         <v>769</v>
@@ -41277,13 +41058,13 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="6" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="B576" s="8" t="s">
         <v>771</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D576" s="10" t="s">
         <v>2268</v>
@@ -41461,13 +41242,13 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" s="6" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="B584" s="8" t="s">
         <v>1868</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D584" s="6" t="s">
         <v>32</v>
@@ -41678,7 +41459,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>
-  <drawing r:id="rId165"/>
 </worksheet>
 </file>
 
@@ -41826,7 +41606,7 @@
     </row>
     <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2722</v>
